--- a/Code/Results/Cases/Case_3_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.336524570784945</v>
+        <v>1.695329432185133</v>
       </c>
       <c r="C2">
-        <v>0.9916827323238522</v>
+        <v>0.2929308297521231</v>
       </c>
       <c r="D2">
-        <v>0.0297614727404909</v>
+        <v>0.0702208808798801</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.830929185747053</v>
+        <v>1.789860563089604</v>
       </c>
       <c r="G2">
-        <v>0.0007906514706134354</v>
+        <v>0.002496826371860562</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9528275863907112</v>
+        <v>1.318122297531318</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1548522441128313</v>
+        <v>0.235109538552237</v>
       </c>
       <c r="M2">
-        <v>0.5196544474778406</v>
+        <v>0.3455716035821652</v>
       </c>
       <c r="N2">
-        <v>0.904390327271237</v>
+        <v>1.804913798639703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.890147534284438</v>
+        <v>1.584179911766284</v>
       </c>
       <c r="C3">
-        <v>0.8555677978256995</v>
+        <v>0.2548042521924287</v>
       </c>
       <c r="D3">
-        <v>0.03161224490613179</v>
+        <v>0.071006820089071</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.651902777000657</v>
+        <v>1.757118184208281</v>
       </c>
       <c r="G3">
-        <v>0.0007989071052293406</v>
+        <v>0.002502051419105781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8929007688243118</v>
+        <v>1.312308957100889</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1429817265886939</v>
+        <v>0.2335045244996437</v>
       </c>
       <c r="M3">
-        <v>0.4534041273530391</v>
+        <v>0.3300313452470505</v>
       </c>
       <c r="N3">
-        <v>0.9544708748331487</v>
+        <v>1.824448230199536</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.620025889295789</v>
+        <v>1.516847234068166</v>
       </c>
       <c r="C4">
-        <v>0.7731160892062405</v>
+        <v>0.2313942500149722</v>
       </c>
       <c r="D4">
-        <v>0.03281692738357478</v>
+        <v>0.07151628605891958</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.54612992541901</v>
+        <v>1.73821281942196</v>
       </c>
       <c r="G4">
-        <v>0.0008041143959704434</v>
+        <v>0.002505428824946347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8583971354667952</v>
+        <v>1.309517864352863</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1359319418251417</v>
+        <v>0.232630672873178</v>
       </c>
       <c r="M4">
-        <v>0.41340332503556</v>
+        <v>0.3206870864115317</v>
       </c>
       <c r="N4">
-        <v>0.9868754408075375</v>
+        <v>1.837098399163125</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.510809072752124</v>
+        <v>1.489637413992398</v>
       </c>
       <c r="C5">
-        <v>0.7397511101849261</v>
+        <v>0.2218537303085952</v>
       </c>
       <c r="D5">
-        <v>0.03332404013622536</v>
+        <v>0.07173064438209309</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.503968533074939</v>
+        <v>1.730808643683105</v>
       </c>
       <c r="G5">
-        <v>0.0008062727152757203</v>
+        <v>0.002506847838651629</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8448649208966117</v>
+        <v>1.308575494075995</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1331145166059713</v>
+        <v>0.2323026408241446</v>
       </c>
       <c r="M5">
-        <v>0.397252344692447</v>
+        <v>0.3169287719147462</v>
       </c>
       <c r="N5">
-        <v>1.000478061801672</v>
+        <v>1.842418036781691</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.492721910565081</v>
+        <v>1.485133035985029</v>
       </c>
       <c r="C6">
-        <v>0.7342237408962546</v>
+        <v>0.220269467835351</v>
       </c>
       <c r="D6">
-        <v>0.03340919713594381</v>
+        <v>0.07176664543341182</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.49702173751453</v>
+        <v>1.729597257007526</v>
       </c>
       <c r="G6">
-        <v>0.0008066333378923915</v>
+        <v>0.002507086047712321</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8426484852806837</v>
+        <v>1.308430772984153</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1326499039700622</v>
+        <v>0.232249866666919</v>
       </c>
       <c r="M6">
-        <v>0.3945789552077912</v>
+        <v>0.3163076957051132</v>
       </c>
       <c r="N6">
-        <v>1.002760258548498</v>
+        <v>1.843311289213108</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.618549641343293</v>
+        <v>1.516479347767756</v>
       </c>
       <c r="C7">
-        <v>0.7726652270403918</v>
+        <v>0.2312655872212019</v>
       </c>
       <c r="D7">
-        <v>0.0328237021355875</v>
+        <v>0.07151914967526096</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.54555763680527</v>
+        <v>1.73811175174589</v>
       </c>
       <c r="G7">
-        <v>0.0008041433548145496</v>
+        <v>0.002505447789534859</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8582125568252934</v>
+        <v>1.309504366505521</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1358937265063389</v>
+        <v>0.2326261352661447</v>
       </c>
       <c r="M7">
-        <v>0.413184927292285</v>
+        <v>0.320636200013702</v>
       </c>
       <c r="N7">
-        <v>0.9870573045686371</v>
+        <v>1.837169475717268</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.18170802304121</v>
+        <v>1.656814857634913</v>
       </c>
       <c r="C8">
-        <v>0.9444870698335421</v>
+        <v>0.2797843659869557</v>
       </c>
       <c r="D8">
-        <v>0.03038482209148974</v>
+        <v>0.07048628053692063</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.76827563550836</v>
+        <v>1.778321313982801</v>
       </c>
       <c r="G8">
-        <v>0.0007934702687735218</v>
+        <v>0.002498592937026709</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9316590529766131</v>
+        <v>1.315955893055126</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.150706840435646</v>
+        <v>0.2345329578577804</v>
       </c>
       <c r="M8">
-        <v>0.4966578410653568</v>
+        <v>0.3401722465751149</v>
       </c>
       <c r="N8">
-        <v>0.9213029164741968</v>
+        <v>1.811512917323405</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.324198149286985</v>
+        <v>1.939320230395481</v>
       </c>
       <c r="C9">
-        <v>1.292742943868461</v>
+        <v>0.3749656821183862</v>
       </c>
       <c r="D9">
-        <v>0.02619390735354976</v>
+        <v>0.06867495463134787</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.243030362567936</v>
+        <v>1.866756019772382</v>
       </c>
       <c r="G9">
-        <v>0.0007735617075068646</v>
+        <v>0.002486486534620597</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.096261939703496</v>
+        <v>1.33481676114026</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.181878948835795</v>
+        <v>0.2391585945273889</v>
       </c>
       <c r="M9">
-        <v>0.6667514462521567</v>
+        <v>0.3800576899285062</v>
       </c>
       <c r="N9">
-        <v>0.806414672064264</v>
+        <v>1.766420301124633</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.197401464339805</v>
+        <v>2.151438187061558</v>
       </c>
       <c r="C10">
-        <v>1.559278032636428</v>
+        <v>0.4449755668678677</v>
       </c>
       <c r="D10">
-        <v>0.02355507189472661</v>
+        <v>0.06747567386617703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.622925740998113</v>
+        <v>1.937683368725885</v>
       </c>
       <c r="G10">
-        <v>0.0007594395583447877</v>
+        <v>0.002478397093989374</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.23346560714937</v>
+        <v>1.352509810998143</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2064302083315752</v>
+        <v>0.2430990028778695</v>
       </c>
       <c r="M10">
-        <v>0.7972315928861491</v>
+        <v>0.4103367513348744</v>
       </c>
       <c r="N10">
-        <v>0.7320123950082973</v>
+        <v>1.736492805074583</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.604704802332662</v>
+        <v>2.248951374553883</v>
       </c>
       <c r="C11">
-        <v>1.683828407515819</v>
+        <v>0.4768553222651803</v>
       </c>
       <c r="D11">
-        <v>0.02247146442550019</v>
+        <v>0.06695885757825337</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.804542096536039</v>
+        <v>1.971267961037</v>
       </c>
       <c r="G11">
-        <v>0.0007530945266704301</v>
+        <v>0.002474889841032895</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.300375049107075</v>
+        <v>1.361403048452871</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2180471108076745</v>
+        <v>0.2450096892692386</v>
       </c>
       <c r="M11">
-        <v>0.8581997713279037</v>
+        <v>0.4243267415156993</v>
       </c>
       <c r="N11">
-        <v>0.70070919817028</v>
+        <v>1.723577665742518</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.76064961475214</v>
+        <v>2.286025259523171</v>
       </c>
       <c r="C12">
-        <v>1.731561960742795</v>
+        <v>0.4889328695966242</v>
       </c>
       <c r="D12">
-        <v>0.02208005847227668</v>
+        <v>0.06676730567591349</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.87477735543132</v>
+        <v>1.984177165702135</v>
       </c>
       <c r="G12">
-        <v>0.0007507003526549563</v>
+        <v>0.002473586414134599</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.32645062873803</v>
+        <v>1.36489300206631</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2225191051480238</v>
+        <v>0.2457502311420967</v>
       </c>
       <c r="M12">
-        <v>0.8815580445104274</v>
+        <v>0.4296556474714848</v>
       </c>
       <c r="N12">
-        <v>0.6892573662079826</v>
+        <v>1.718787967656453</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.726983665724617</v>
+        <v>2.278034145153924</v>
       </c>
       <c r="C13">
-        <v>1.721254737746733</v>
+        <v>0.4863315019410948</v>
       </c>
       <c r="D13">
-        <v>0.02216347506309191</v>
+        <v>0.06680837464432265</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.859582557409482</v>
+        <v>1.981388395109832</v>
       </c>
       <c r="G13">
-        <v>0.0007512156496748412</v>
+        <v>0.002473866034364034</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.32080034672488</v>
+        <v>1.364135926476578</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2215525923601831</v>
+        <v>0.245589985616121</v>
       </c>
       <c r="M13">
-        <v>0.8765146943317319</v>
+        <v>0.4285065820610896</v>
       </c>
       <c r="N13">
-        <v>0.6917052120121241</v>
+        <v>1.719815016008667</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.617498644571299</v>
+        <v>2.251998497513171</v>
       </c>
       <c r="C14">
-        <v>1.687743485375336</v>
+        <v>0.4778488370644709</v>
       </c>
       <c r="D14">
-        <v>0.02243887034491365</v>
+        <v>0.06694301508312961</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.810289897543925</v>
+        <v>1.972326162217115</v>
       </c>
       <c r="G14">
-        <v>0.0007528974027164331</v>
+        <v>0.002474782113160824</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.302504932600471</v>
+        <v>1.361687713630587</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2184135109404082</v>
+        <v>0.2450702731820087</v>
       </c>
       <c r="M14">
-        <v>0.8601157981180592</v>
+        <v>0.4247645276086516</v>
       </c>
       <c r="N14">
-        <v>0.6997587664796328</v>
+        <v>1.723181587818608</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.550666577877223</v>
+        <v>2.236070188042959</v>
       </c>
       <c r="C15">
-        <v>1.667293997148931</v>
+        <v>0.4726536835438537</v>
       </c>
       <c r="D15">
-        <v>0.02261009261527214</v>
+        <v>0.06702602803489732</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.780293245895592</v>
+        <v>1.966800266641997</v>
       </c>
       <c r="G15">
-        <v>0.0007539285482622018</v>
+        <v>0.002475346449411927</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.291397568135324</v>
+        <v>1.360204061484851</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2165004978828051</v>
+        <v>0.2447541494525893</v>
       </c>
       <c r="M15">
-        <v>0.8501075334062946</v>
+        <v>0.4224764790976323</v>
       </c>
       <c r="N15">
-        <v>0.7047453167866422</v>
+        <v>1.725256875415255</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.171007390762213</v>
+        <v>2.145086085080209</v>
       </c>
       <c r="C16">
-        <v>1.551212583020458</v>
+        <v>0.4428928590261876</v>
       </c>
       <c r="D16">
-        <v>0.02362841381222047</v>
+        <v>0.06751002927356531</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.61124991281622</v>
+        <v>1.935515232770598</v>
       </c>
       <c r="G16">
-        <v>0.0007598555804419526</v>
+        <v>0.002478629764266369</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.22919096583567</v>
+        <v>1.351945682656449</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2056807389295869</v>
+        <v>0.2429765140932858</v>
       </c>
       <c r="M16">
-        <v>0.7932828512771124</v>
+        <v>0.4094268300423423</v>
       </c>
       <c r="N16">
-        <v>0.7341122998100147</v>
+        <v>1.737350945653787</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.940853885796628</v>
+        <v>2.089532239462812</v>
       </c>
       <c r="C17">
-        <v>1.480909252200547</v>
+        <v>0.4246442865301674</v>
       </c>
       <c r="D17">
-        <v>0.02428445727247208</v>
+        <v>0.06781432555604283</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.509932579210272</v>
+        <v>1.916662022559024</v>
       </c>
       <c r="G17">
-        <v>0.0007635100000966812</v>
+        <v>0.002480688099985312</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.192242302275602</v>
+        <v>1.347096337641801</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1991637176051384</v>
+        <v>0.2419162686720853</v>
       </c>
       <c r="M17">
-        <v>0.7588619620117854</v>
+        <v>0.4014766972211703</v>
       </c>
       <c r="N17">
-        <v>0.752803659996502</v>
+        <v>1.744949632702756</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.809407020756566</v>
+        <v>2.05767504286996</v>
       </c>
       <c r="C18">
-        <v>1.440777118529581</v>
+        <v>0.4141511458567493</v>
       </c>
       <c r="D18">
-        <v>0.02467264524268487</v>
+        <v>0.06799205276452724</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.452472717413926</v>
+        <v>1.905942237195518</v>
       </c>
       <c r="G18">
-        <v>0.0007656195702659179</v>
+        <v>0.002481888261309404</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.171407312225412</v>
+        <v>1.344386568395421</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1954569451817179</v>
+        <v>0.241317565877651</v>
       </c>
       <c r="M18">
-        <v>0.7392130999962845</v>
+        <v>0.396924302407605</v>
       </c>
       <c r="N18">
-        <v>0.763791334285429</v>
+        <v>1.749385964124613</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.765053985774671</v>
+        <v>2.046905181536829</v>
       </c>
       <c r="C19">
-        <v>1.427238697593168</v>
+        <v>0.4105988325236467</v>
       </c>
       <c r="D19">
-        <v>0.02480588257213689</v>
+        <v>0.06805269190008545</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.4331522507579</v>
+        <v>1.902333961219554</v>
       </c>
       <c r="G19">
-        <v>0.0007663352282188549</v>
+        <v>0.002482297412376263</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.16442193143844</v>
+        <v>1.343482706911686</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1942088070933465</v>
+        <v>0.2411167652919204</v>
       </c>
       <c r="M19">
-        <v>0.7325848320689374</v>
+        <v>0.3953864235882136</v>
       </c>
       <c r="N19">
-        <v>0.767551227981663</v>
+        <v>1.750899311299733</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.96525596159961</v>
+        <v>2.095436107170656</v>
       </c>
       <c r="C20">
-        <v>1.488361007278229</v>
+        <v>0.4265865666625359</v>
       </c>
       <c r="D20">
-        <v>0.02421348306094195</v>
+        <v>0.06778165268103287</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.520632276830867</v>
+        <v>1.918656124501069</v>
       </c>
       <c r="G20">
-        <v>0.0007631202090269103</v>
+        <v>0.00248046730468754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.196131773416624</v>
+        <v>1.347604330404067</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1998530974466703</v>
+        <v>0.2420279823977936</v>
       </c>
       <c r="M20">
-        <v>0.7625104230361117</v>
+        <v>0.402320899181241</v>
       </c>
       <c r="N20">
-        <v>0.7507891664649762</v>
+        <v>1.744133929453092</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.649608467316398</v>
+        <v>2.259641779074173</v>
       </c>
       <c r="C21">
-        <v>1.69757029361449</v>
+        <v>0.4803402491334055</v>
       </c>
       <c r="D21">
-        <v>0.02235744754617031</v>
+        <v>0.06690335497290256</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.824727004224258</v>
+        <v>1.974982749994467</v>
       </c>
       <c r="G21">
-        <v>0.000752403223402645</v>
+        <v>0.002474512369319948</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.30785790397546</v>
+        <v>1.362403487855644</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2193334837105567</v>
+        <v>0.2452224636635378</v>
       </c>
       <c r="M21">
-        <v>0.8649248609552913</v>
+        <v>0.4258628116813838</v>
       </c>
       <c r="N21">
-        <v>0.6973820177864667</v>
+        <v>1.722189999621527</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.106972938634271</v>
+        <v>2.367821468725595</v>
       </c>
       <c r="C22">
-        <v>1.837670975469564</v>
+        <v>0.5155030956485689</v>
       </c>
       <c r="D22">
-        <v>0.0212560227226426</v>
+        <v>0.06635356697506367</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.032097262424969</v>
+        <v>2.012912179344113</v>
       </c>
       <c r="G22">
-        <v>0.0007454473067808116</v>
+        <v>0.002470764346896501</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.385233435026848</v>
+        <v>1.372788712361967</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2324947899842726</v>
+        <v>0.2474093750628157</v>
       </c>
       <c r="M22">
-        <v>0.9334598798130358</v>
+        <v>0.4414307472757386</v>
       </c>
       <c r="N22">
-        <v>0.6648411357452986</v>
+        <v>1.708437211644167</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.861850071156198</v>
+        <v>2.310004696185842</v>
       </c>
       <c r="C23">
-        <v>1.762553572905688</v>
+        <v>0.496732858474445</v>
       </c>
       <c r="D23">
-        <v>0.02183286518377514</v>
+        <v>0.06664477467952779</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.920558828849494</v>
+        <v>1.992565773799384</v>
       </c>
       <c r="G23">
-        <v>0.000749156431799096</v>
+        <v>0.002472751617541855</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.343504363495484</v>
+        <v>1.367180395616245</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2254279675694875</v>
+        <v>0.2462331039866967</v>
       </c>
       <c r="M23">
-        <v>0.8967206400157082</v>
+        <v>0.4331051474185585</v>
       </c>
       <c r="N23">
-        <v>0.6819791987187571</v>
+        <v>1.715723298812655</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.954221087852943</v>
+        <v>2.09276671496832</v>
       </c>
       <c r="C24">
-        <v>1.484991184340913</v>
+        <v>0.4257084674593443</v>
       </c>
       <c r="D24">
-        <v>0.02424553633474424</v>
+        <v>0.06779641542088122</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.515792500981547</v>
+        <v>1.91775421993529</v>
       </c>
       <c r="G24">
-        <v>0.0007632964065591429</v>
+        <v>0.002480567074037677</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.194372081703818</v>
+        <v>1.347374423413683</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1995413050101646</v>
+        <v>0.2419774428395343</v>
       </c>
       <c r="M24">
-        <v>0.7608605201137451</v>
+        <v>0.4019391786655433</v>
       </c>
       <c r="N24">
-        <v>0.7516991686438246</v>
+        <v>1.744502497916905</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.01002176577208</v>
+        <v>1.862101824502361</v>
       </c>
       <c r="C25">
-        <v>1.196956358841817</v>
+        <v>0.3492067708165223</v>
       </c>
       <c r="D25">
-        <v>0.02725677033556373</v>
+        <v>0.06914194472155621</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.109763726232174</v>
+        <v>1.841794590392453</v>
       </c>
       <c r="G25">
-        <v>0.0007788495849727227</v>
+        <v>0.002489619578668367</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.049170338782119</v>
+        <v>1.32904444796921</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1731843102025508</v>
+        <v>0.2378121845652146</v>
       </c>
       <c r="M25">
-        <v>0.6198956532559308</v>
+        <v>0.369097452960311</v>
       </c>
       <c r="N25">
-        <v>0.8358519440566852</v>
+        <v>1.778058201409365</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.695329432185133</v>
+        <v>3.336524570785116</v>
       </c>
       <c r="C2">
-        <v>0.2929308297521231</v>
+        <v>0.9916827323239659</v>
       </c>
       <c r="D2">
-        <v>0.0702208808798801</v>
+        <v>0.02976147274050689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.789860563089604</v>
+        <v>1.830929185747067</v>
       </c>
       <c r="G2">
-        <v>0.002496826371860562</v>
+        <v>0.0007906514705871942</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.318122297531318</v>
+        <v>0.9528275863907254</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.235109538552237</v>
+        <v>0.1548522441127531</v>
       </c>
       <c r="M2">
-        <v>0.3455716035821652</v>
+        <v>0.5196544474778193</v>
       </c>
       <c r="N2">
-        <v>1.804913798639703</v>
+        <v>0.9043903272712086</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.584179911766284</v>
+        <v>2.890147534284438</v>
       </c>
       <c r="C3">
-        <v>0.2548042521924287</v>
+        <v>0.8555677978258416</v>
       </c>
       <c r="D3">
-        <v>0.071006820089071</v>
+        <v>0.03161224490612113</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.757118184208281</v>
+        <v>1.651902777000657</v>
       </c>
       <c r="G3">
-        <v>0.002502051419105781</v>
+        <v>0.0007989071052279781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.312308957100889</v>
+        <v>0.8929007688243047</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2335045244996437</v>
+        <v>0.1429817265887365</v>
       </c>
       <c r="M3">
-        <v>0.3300313452470505</v>
+        <v>0.4534041273530391</v>
       </c>
       <c r="N3">
-        <v>1.824448230199536</v>
+        <v>0.9544708748331701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.516847234068166</v>
+        <v>2.620025889295846</v>
       </c>
       <c r="C4">
-        <v>0.2313942500149722</v>
+        <v>0.7731160892062121</v>
       </c>
       <c r="D4">
-        <v>0.07151628605891958</v>
+        <v>0.03281692738389452</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.73821281942196</v>
+        <v>1.54612992541901</v>
       </c>
       <c r="G4">
-        <v>0.002505428824946347</v>
+        <v>0.0008041143959547776</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.309517864352863</v>
+        <v>0.8583971354668023</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.232630672873178</v>
+        <v>0.1359319418251346</v>
       </c>
       <c r="M4">
-        <v>0.3206870864115317</v>
+        <v>0.4134033250355671</v>
       </c>
       <c r="N4">
-        <v>1.837098399163125</v>
+        <v>0.9868754408075233</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.489637413992398</v>
+        <v>2.510809072752068</v>
       </c>
       <c r="C5">
-        <v>0.2218537303085952</v>
+        <v>0.739751110184784</v>
       </c>
       <c r="D5">
-        <v>0.07173064438209309</v>
+        <v>0.0333240401364332</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.730808643683105</v>
+        <v>1.503968533074925</v>
       </c>
       <c r="G5">
-        <v>0.002506847838651629</v>
+        <v>0.0008062727152467697</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.308575494075995</v>
+        <v>0.8448649208966046</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2323026408241446</v>
+        <v>0.1331145166059713</v>
       </c>
       <c r="M5">
-        <v>0.3169287719147462</v>
+        <v>0.3972523446924541</v>
       </c>
       <c r="N5">
-        <v>1.842418036781691</v>
+        <v>1.000478061801722</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.485133035985029</v>
+        <v>2.492721910565194</v>
       </c>
       <c r="C6">
-        <v>0.220269467835351</v>
+        <v>0.7342237408965104</v>
       </c>
       <c r="D6">
-        <v>0.07176664543341182</v>
+        <v>0.03340919713594026</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.729597257007526</v>
+        <v>1.497021737514544</v>
       </c>
       <c r="G6">
-        <v>0.002507086047712321</v>
+        <v>0.0008066333379355857</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.308430772984153</v>
+        <v>0.8426484852806908</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.232249866666919</v>
+        <v>0.1326499039701545</v>
       </c>
       <c r="M6">
-        <v>0.3163076957051132</v>
+        <v>0.3945789552077841</v>
       </c>
       <c r="N6">
-        <v>1.843311289213108</v>
+        <v>1.002760258548449</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.516479347767756</v>
+        <v>2.618549641343293</v>
       </c>
       <c r="C7">
-        <v>0.2312655872212019</v>
+        <v>0.7726652270403918</v>
       </c>
       <c r="D7">
-        <v>0.07151914967526096</v>
+        <v>0.0328237021355875</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.73811175174589</v>
+        <v>1.54555763680527</v>
       </c>
       <c r="G7">
-        <v>0.002505447789534859</v>
+        <v>0.0008041433547852756</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.309504366505521</v>
+        <v>0.8582125568252863</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2326261352661447</v>
+        <v>0.1358937265064171</v>
       </c>
       <c r="M7">
-        <v>0.320636200013702</v>
+        <v>0.4131849272922921</v>
       </c>
       <c r="N7">
-        <v>1.837169475717268</v>
+        <v>0.9870573045686371</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.656814857634913</v>
+        <v>3.181708023041267</v>
       </c>
       <c r="C8">
-        <v>0.2797843659869557</v>
+        <v>0.9444870698339969</v>
       </c>
       <c r="D8">
-        <v>0.07048628053692063</v>
+        <v>0.03038482209137605</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.778321313982801</v>
+        <v>1.768275635508346</v>
       </c>
       <c r="G8">
-        <v>0.002498592937026709</v>
+        <v>0.0007934702687699548</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.315955893055126</v>
+        <v>0.9316590529765989</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2345329578577804</v>
+        <v>0.1507068404357099</v>
       </c>
       <c r="M8">
-        <v>0.3401722465751149</v>
+        <v>0.4966578410653568</v>
       </c>
       <c r="N8">
-        <v>1.811512917323405</v>
+        <v>0.9213029164741542</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.939320230395481</v>
+        <v>4.324198149287042</v>
       </c>
       <c r="C9">
-        <v>0.3749656821183862</v>
+        <v>1.292742943868063</v>
       </c>
       <c r="D9">
-        <v>0.06867495463134787</v>
+        <v>0.02619390735356042</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.866756019772382</v>
+        <v>2.243030362567936</v>
       </c>
       <c r="G9">
-        <v>0.002486486534620597</v>
+        <v>0.0007735617075116188</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.33481676114026</v>
+        <v>1.09626193970351</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2391585945273889</v>
+        <v>0.1818789488357595</v>
       </c>
       <c r="M9">
-        <v>0.3800576899285062</v>
+        <v>0.6667514462521567</v>
       </c>
       <c r="N9">
-        <v>1.766420301124633</v>
+        <v>0.8064146720642569</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.151438187061558</v>
+        <v>5.197401464339976</v>
       </c>
       <c r="C10">
-        <v>0.4449755668678677</v>
+        <v>1.559278032636485</v>
       </c>
       <c r="D10">
-        <v>0.06747567386617703</v>
+        <v>0.02355507189459694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.937683368725885</v>
+        <v>2.62292574099817</v>
       </c>
       <c r="G10">
-        <v>0.002478397093989374</v>
+        <v>0.0007594395582823883</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.352509810998143</v>
+        <v>1.233465607149384</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2430990028778695</v>
+        <v>0.2064302083316392</v>
       </c>
       <c r="M10">
-        <v>0.4103367513348744</v>
+        <v>0.7972315928861491</v>
       </c>
       <c r="N10">
-        <v>1.736492805074583</v>
+        <v>0.7320123950083115</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.248951374553883</v>
+        <v>5.604704802332435</v>
       </c>
       <c r="C11">
-        <v>0.4768553222651803</v>
+        <v>1.683828407515932</v>
       </c>
       <c r="D11">
-        <v>0.06695885757825337</v>
+        <v>0.02247146442563341</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.971267961037</v>
+        <v>2.804542096535982</v>
       </c>
       <c r="G11">
-        <v>0.002474889841032895</v>
+        <v>0.0007530945266168245</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.361403048452871</v>
+        <v>1.30037504910706</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2450096892692386</v>
+        <v>0.2180471108076887</v>
       </c>
       <c r="M11">
-        <v>0.4243267415156993</v>
+        <v>0.8581997713278966</v>
       </c>
       <c r="N11">
-        <v>1.723577665742518</v>
+        <v>0.70070919817028</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.286025259523171</v>
+        <v>5.76064961475214</v>
       </c>
       <c r="C12">
-        <v>0.4889328695966242</v>
+        <v>1.731561960742738</v>
       </c>
       <c r="D12">
-        <v>0.06676730567591349</v>
+        <v>0.02208005847228023</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.984177165702135</v>
+        <v>2.874777355431348</v>
       </c>
       <c r="G12">
-        <v>0.002473586414134599</v>
+        <v>0.0007507003526546546</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.36489300206631</v>
+        <v>1.326450628738044</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2457502311420967</v>
+        <v>0.2225191051480095</v>
       </c>
       <c r="M12">
-        <v>0.4296556474714848</v>
+        <v>0.8815580445104487</v>
       </c>
       <c r="N12">
-        <v>1.718787967656453</v>
+        <v>0.6892573662079755</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.278034145153924</v>
+        <v>5.726983665724902</v>
       </c>
       <c r="C13">
-        <v>0.4863315019410948</v>
+        <v>1.721254737747017</v>
       </c>
       <c r="D13">
-        <v>0.06680837464432265</v>
+        <v>0.02216347506299243</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.981388395109832</v>
+        <v>2.859582557409482</v>
       </c>
       <c r="G13">
-        <v>0.002473866034364034</v>
+        <v>0.0007512156496690017</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.364135926476578</v>
+        <v>1.32080034672488</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.245589985616121</v>
+        <v>0.2215525923601547</v>
       </c>
       <c r="M13">
-        <v>0.4285065820610896</v>
+        <v>0.8765146943317319</v>
       </c>
       <c r="N13">
-        <v>1.719815016008667</v>
+        <v>0.6917052120121028</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.251998497513171</v>
+        <v>5.617498644571015</v>
       </c>
       <c r="C14">
-        <v>0.4778488370644709</v>
+        <v>1.687743485375393</v>
       </c>
       <c r="D14">
-        <v>0.06694301508312961</v>
+        <v>0.02243887034479819</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.972326162217115</v>
+        <v>2.810289897543896</v>
       </c>
       <c r="G14">
-        <v>0.002474782113160824</v>
+        <v>0.0007528974026554408</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.361687713630587</v>
+        <v>1.302504932600456</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2450702731820087</v>
+        <v>0.2184135109403798</v>
       </c>
       <c r="M14">
-        <v>0.4247645276086516</v>
+        <v>0.8601157981180521</v>
       </c>
       <c r="N14">
-        <v>1.723181587818608</v>
+        <v>0.6997587664796896</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.236070188042959</v>
+        <v>5.550666577877053</v>
       </c>
       <c r="C15">
-        <v>0.4726536835438537</v>
+        <v>1.667293997148761</v>
       </c>
       <c r="D15">
-        <v>0.06702602803489732</v>
+        <v>0.02261009261526858</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.966800266641997</v>
+        <v>2.780293245895649</v>
       </c>
       <c r="G15">
-        <v>0.002475346449411927</v>
+        <v>0.0007539285482611533</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.360204061484851</v>
+        <v>1.291397568135324</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2447541494525893</v>
+        <v>0.2165004978827909</v>
       </c>
       <c r="M15">
-        <v>0.4224764790976323</v>
+        <v>0.8501075334063088</v>
       </c>
       <c r="N15">
-        <v>1.725256875415255</v>
+        <v>0.7047453167866422</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.145086085080209</v>
+        <v>5.17100739076227</v>
       </c>
       <c r="C16">
-        <v>0.4428928590261876</v>
+        <v>1.551212583020174</v>
       </c>
       <c r="D16">
-        <v>0.06751002927356531</v>
+        <v>0.02362841381222758</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.935515232770598</v>
+        <v>2.61124991281622</v>
       </c>
       <c r="G16">
-        <v>0.002478629764266369</v>
+        <v>0.0007598555804425462</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.351945682656449</v>
+        <v>1.22919096583567</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2429765140932858</v>
+        <v>0.2056807389295372</v>
       </c>
       <c r="M16">
-        <v>0.4094268300423423</v>
+        <v>0.7932828512771124</v>
       </c>
       <c r="N16">
-        <v>1.737350945653787</v>
+        <v>0.7341122998100218</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.089532239462812</v>
+        <v>4.940853885796741</v>
       </c>
       <c r="C17">
-        <v>0.4246442865301674</v>
+        <v>1.480909252200377</v>
       </c>
       <c r="D17">
-        <v>0.06781432555604283</v>
+        <v>0.02428445727237261</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.916662022559024</v>
+        <v>2.509932579210272</v>
       </c>
       <c r="G17">
-        <v>0.002480688099985312</v>
+        <v>0.0007635100000413581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.347096337641801</v>
+        <v>1.192242302275645</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2419162686720853</v>
+        <v>0.1991637176050887</v>
       </c>
       <c r="M17">
-        <v>0.4014766972211703</v>
+        <v>0.7588619620117996</v>
       </c>
       <c r="N17">
-        <v>1.744949632702756</v>
+        <v>0.7528036599965731</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.05767504286996</v>
+        <v>4.80940702075668</v>
       </c>
       <c r="C18">
-        <v>0.4141511458567493</v>
+        <v>1.440777118529695</v>
       </c>
       <c r="D18">
-        <v>0.06799205276452724</v>
+        <v>0.024672645242795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.905942237195518</v>
+        <v>2.45247271741394</v>
       </c>
       <c r="G18">
-        <v>0.002481888261309404</v>
+        <v>0.0007656195703785104</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.344386568395421</v>
+        <v>1.171407312225455</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.241317565877651</v>
+        <v>0.19545694518159</v>
       </c>
       <c r="M18">
-        <v>0.396924302407605</v>
+        <v>0.7392130999962916</v>
       </c>
       <c r="N18">
-        <v>1.749385964124613</v>
+        <v>0.7637913342854432</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.046905181536829</v>
+        <v>4.765053985774614</v>
       </c>
       <c r="C19">
-        <v>0.4105988325236467</v>
+        <v>1.427238697593452</v>
       </c>
       <c r="D19">
-        <v>0.06805269190008545</v>
+        <v>0.02480588257201966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.902333961219554</v>
+        <v>2.4331522507579</v>
       </c>
       <c r="G19">
-        <v>0.002482297412376263</v>
+        <v>0.0007663352283305957</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.343482706911686</v>
+        <v>1.164421931438454</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2411167652919204</v>
+        <v>0.1942088070933892</v>
       </c>
       <c r="M19">
-        <v>0.3953864235882136</v>
+        <v>0.7325848320689232</v>
       </c>
       <c r="N19">
-        <v>1.750899311299733</v>
+        <v>0.7675512279816417</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.095436107170656</v>
+        <v>4.965255961599325</v>
       </c>
       <c r="C20">
-        <v>0.4265865666625359</v>
+        <v>1.488361007278399</v>
       </c>
       <c r="D20">
-        <v>0.06778165268103287</v>
+        <v>0.02421348306083182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.918656124501069</v>
+        <v>2.520632276830838</v>
       </c>
       <c r="G20">
-        <v>0.00248046730468754</v>
+        <v>0.0007631202090278447</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.347604330404067</v>
+        <v>1.196131773416639</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2420279823977936</v>
+        <v>0.1998530974466277</v>
       </c>
       <c r="M20">
-        <v>0.402320899181241</v>
+        <v>0.7625104230361117</v>
       </c>
       <c r="N20">
-        <v>1.744133929453092</v>
+        <v>0.7507891664649193</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.259641779074173</v>
+        <v>5.649608467316227</v>
       </c>
       <c r="C21">
-        <v>0.4803402491334055</v>
+        <v>1.69757029361449</v>
       </c>
       <c r="D21">
-        <v>0.06690335497290256</v>
+        <v>0.0223574475462911</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.974982749994467</v>
+        <v>2.824727004224314</v>
       </c>
       <c r="G21">
-        <v>0.002474512369319948</v>
+        <v>0.0007524032234026062</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.362403487855644</v>
+        <v>1.30785790397546</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2452224636635378</v>
+        <v>0.2193334837106136</v>
       </c>
       <c r="M21">
-        <v>0.4258628116813838</v>
+        <v>0.8649248609552913</v>
       </c>
       <c r="N21">
-        <v>1.722189999621527</v>
+        <v>0.6973820177864667</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.367821468725595</v>
+        <v>6.106972938634328</v>
       </c>
       <c r="C22">
-        <v>0.5155030956485689</v>
+        <v>1.837670975469962</v>
       </c>
       <c r="D22">
-        <v>0.06635356697506367</v>
+        <v>0.02125602272273852</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.012912179344113</v>
+        <v>3.032097262424998</v>
       </c>
       <c r="G22">
-        <v>0.002470764346896501</v>
+        <v>0.0007454473067708027</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.372788712361967</v>
+        <v>1.385233435026862</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2474093750628157</v>
+        <v>0.2324947899843295</v>
       </c>
       <c r="M22">
-        <v>0.4414307472757386</v>
+        <v>0.93345987981305</v>
       </c>
       <c r="N22">
-        <v>1.708437211644167</v>
+        <v>0.6648411357452844</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.310004696185842</v>
+        <v>5.861850071156027</v>
       </c>
       <c r="C23">
-        <v>0.496732858474445</v>
+        <v>1.762553572905404</v>
       </c>
       <c r="D23">
-        <v>0.06664477467952779</v>
+        <v>0.0218328651836579</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.992565773799384</v>
+        <v>2.920558828849522</v>
       </c>
       <c r="G23">
-        <v>0.002472751617541855</v>
+        <v>0.0007491564318553579</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.367180395616245</v>
+        <v>1.34350436349547</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2462331039866967</v>
+        <v>0.2254279675695585</v>
       </c>
       <c r="M23">
-        <v>0.4331051474185585</v>
+        <v>0.8967206400157011</v>
       </c>
       <c r="N23">
-        <v>1.715723298812655</v>
+        <v>0.6819791987187784</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.09276671496832</v>
+        <v>4.954221087853057</v>
       </c>
       <c r="C24">
-        <v>0.4257084674593443</v>
+        <v>1.484991184340799</v>
       </c>
       <c r="D24">
-        <v>0.06779641542088122</v>
+        <v>0.02424553633450977</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.91775421993529</v>
+        <v>2.515792500981519</v>
       </c>
       <c r="G24">
-        <v>0.002480567074037677</v>
+        <v>0.000763296406670741</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.347374423413683</v>
+        <v>1.194372081703804</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2419774428395343</v>
+        <v>0.199541305010186</v>
       </c>
       <c r="M24">
-        <v>0.4019391786655433</v>
+        <v>0.7608605201137451</v>
       </c>
       <c r="N24">
-        <v>1.744502497916905</v>
+        <v>0.7516991686438175</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.862101824502361</v>
+        <v>4.010021765772024</v>
       </c>
       <c r="C25">
-        <v>0.3492067708165223</v>
+        <v>1.196956358842101</v>
       </c>
       <c r="D25">
-        <v>0.06914194472155621</v>
+        <v>0.02725677033588525</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.841794590392453</v>
+        <v>2.109763726232188</v>
       </c>
       <c r="G25">
-        <v>0.002489619578668367</v>
+        <v>0.0007788495849743549</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.32904444796921</v>
+        <v>1.049170338782105</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2378121845652146</v>
+        <v>0.1731843102026716</v>
       </c>
       <c r="M25">
-        <v>0.369097452960311</v>
+        <v>0.6198956532559308</v>
       </c>
       <c r="N25">
-        <v>1.778058201409365</v>
+        <v>0.835851944056671</v>
       </c>
       <c r="O25">
         <v>0</v>
